--- a/ornek.xlsx
+++ b/ornek.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20416"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3DA27D-33B4-4C09-8159-37BA0FCA7179}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6E9674-A560-41DD-8C41-15BC8AAB1863}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2844,8 +2844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B804"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D182" sqref="D182"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3139,7 +3139,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -3683,7 +3683,7 @@
         <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
